--- a/src/test/resources/data/produceTable.xlsx
+++ b/src/test/resources/data/produceTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\common\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F396AF4-C351-43D4-9BEC-DD7E695A63D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C3695-B803-4D8A-B774-0FE090D51E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1095" windowWidth="21600" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,10 +1425,10 @@
       <c r="H4" t="s">
         <v>68</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>43823</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>43826</v>
       </c>
       <c r="K4">
@@ -1496,10 +1496,10 @@
       <c r="H5" t="s">
         <v>68</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>43823</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>43826</v>
       </c>
       <c r="K5">
@@ -1567,10 +1567,10 @@
       <c r="H6" t="s">
         <v>81</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>43724</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>43727</v>
       </c>
       <c r="K6">
@@ -1638,10 +1638,10 @@
       <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>43899</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>43920</v>
       </c>
       <c r="K7">
@@ -1709,10 +1709,10 @@
       <c r="H8" t="s">
         <v>94</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>43846</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>43920</v>
       </c>
       <c r="K8">
@@ -1780,10 +1780,10 @@
       <c r="H9" t="s">
         <v>94</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>43846</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>43920</v>
       </c>
       <c r="K9">
@@ -1851,10 +1851,10 @@
       <c r="H10" t="s">
         <v>103</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>43819</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>43823</v>
       </c>
       <c r="K10">
@@ -1922,10 +1922,10 @@
       <c r="H11" t="s">
         <v>103</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>43819</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <v>43823</v>
       </c>
       <c r="K11">
@@ -1993,10 +1993,10 @@
       <c r="H12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>43820</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>43824</v>
       </c>
       <c r="K12" s="9">
@@ -2067,10 +2067,10 @@
       <c r="H13" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>43818</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <v>43824</v>
       </c>
       <c r="K13" s="9">
@@ -2141,10 +2141,10 @@
       <c r="H14" t="s">
         <v>114</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>43784</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="7">
         <v>43784</v>
       </c>
       <c r="K14">
@@ -2215,10 +2215,10 @@
       <c r="H15" t="s">
         <v>114</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>43784</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="7">
         <v>43784</v>
       </c>
       <c r="K15">
@@ -2289,10 +2289,10 @@
       <c r="H16" t="s">
         <v>114</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>43784</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>43784</v>
       </c>
       <c r="K16">
@@ -2363,10 +2363,10 @@
       <c r="H17" t="s">
         <v>114</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>43784</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>43784</v>
       </c>
       <c r="K17">
@@ -2437,10 +2437,10 @@
       <c r="H18" t="s">
         <v>114</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>43784</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="7">
         <v>43784</v>
       </c>
       <c r="K18">
@@ -2514,10 +2514,10 @@
       <c r="H19" t="s">
         <v>131</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>43832</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="7">
         <v>43833</v>
       </c>
       <c r="K19">
@@ -2592,10 +2592,10 @@
       <c r="H20" t="s">
         <v>161</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>43651</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>43670</v>
       </c>
       <c r="K20">
@@ -2666,10 +2666,10 @@
       <c r="H21" t="s">
         <v>166</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>43651</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="7">
         <v>43670</v>
       </c>
       <c r="K21">
@@ -2740,10 +2740,10 @@
       <c r="H22" t="s">
         <v>169</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <v>43715</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="7">
         <v>43718</v>
       </c>
       <c r="K22">
@@ -2814,10 +2814,10 @@
       <c r="H23" t="s">
         <v>172</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>43719</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="7">
         <v>43721</v>
       </c>
       <c r="K23">

--- a/src/test/resources/data/produceTable.xlsx
+++ b/src/test/resources/data/produceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\common\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C3695-B803-4D8A-B774-0FE090D51E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A57DE7-F052-4CF6-A0B2-C4D5994FE7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="24855" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +770,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1066,12 +1069,13 @@
   <dimension ref="A1:AR23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="53.5" bestFit="1" customWidth="1"/>
@@ -1239,8 +1243,8 @@
       <c r="H2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="7">
-        <v>43832</v>
+      <c r="I2" s="16">
+        <v>0.9549537037037038</v>
       </c>
       <c r="J2" s="7">
         <v>43836</v>

--- a/src/test/resources/data/produceTable.xlsx
+++ b/src/test/resources/data/produceTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\common\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leichao\git\commom\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A57DE7-F052-4CF6-A0B2-C4D5994FE7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3906525C-4D0F-4127-9EF9-51C3EA47894C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="24855" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="2730" windowWidth="26565" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AR$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -198,9 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TDL19083376</t>
-  </si>
-  <si>
     <t>朝阳郎各庄村HLG</t>
   </si>
   <si>
@@ -603,6 +594,10 @@
   </si>
   <si>
     <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDL19083376</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1069,12 +1064,13 @@
   <dimension ref="A1:AR23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
@@ -1229,19 +1225,19 @@
         <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="16">
         <v>0.9549537037037038</v>
@@ -1260,37 +1256,37 @@
         <v>3488</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="8"/>
       <c r="T2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="Y2" s="12">
         <v>43831</v>
       </c>
       <c r="Z2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
@@ -1322,19 +1318,19 @@
         <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="I3" s="7">
         <v>43832</v>
@@ -1353,37 +1349,37 @@
         <v>3488</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="8"/>
       <c r="T3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="Y3" s="12">
         <v>43831</v>
       </c>
       <c r="Z3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
@@ -1409,25 +1405,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
       </c>
       <c r="I4" s="7">
         <v>43823</v>
@@ -1445,34 +1441,34 @@
         <v>3257.3935000000001</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" t="s">
         <v>71</v>
       </c>
-      <c r="T4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>72</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>73</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>74</v>
-      </c>
-      <c r="X4" t="s">
-        <v>75</v>
       </c>
       <c r="Y4" s="14">
         <v>43497</v>
       </c>
       <c r="Z4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.15">
@@ -1480,25 +1476,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>77</v>
       </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
       </c>
       <c r="I5" s="7">
         <v>43823</v>
@@ -1516,34 +1512,34 @@
         <v>3961</v>
       </c>
       <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
         <v>69</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>70</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" t="s">
         <v>71</v>
       </c>
-      <c r="T5" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>72</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>73</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
       </c>
       <c r="Y5" s="14">
         <v>43497</v>
       </c>
       <c r="Z5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.15">
@@ -1551,25 +1547,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
         <v>79</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
         <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>81</v>
       </c>
       <c r="I6" s="7">
         <v>43724</v>
@@ -1587,34 +1583,34 @@
         <v>3961</v>
       </c>
       <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
         <v>69</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>70</v>
       </c>
-      <c r="P6" t="s">
+      <c r="T6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" t="s">
         <v>71</v>
       </c>
-      <c r="T6" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>72</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>73</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>74</v>
-      </c>
-      <c r="X6" t="s">
-        <v>75</v>
       </c>
       <c r="Y6" s="13">
         <v>43862</v>
       </c>
       <c r="Z6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.15">
@@ -1622,25 +1618,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>83</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>86</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
       </c>
       <c r="I7" s="7">
         <v>43899</v>
@@ -1658,34 +1654,34 @@
         <v>5400</v>
       </c>
       <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
         <v>51</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s">
         <v>52</v>
       </c>
-      <c r="P7" t="s">
-        <v>71</v>
-      </c>
-      <c r="T7" t="s">
-        <v>53</v>
-      </c>
       <c r="U7" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" t="s">
         <v>88</v>
       </c>
-      <c r="V7" t="s">
-        <v>89</v>
-      </c>
       <c r="W7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y7" s="13">
         <v>43891</v>
       </c>
       <c r="Z7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.15">
@@ -1693,25 +1689,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
         <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>94</v>
       </c>
       <c r="I8" s="7">
         <v>43846</v>
@@ -1729,34 +1725,34 @@
         <v>5400</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V8" t="s">
         <v>88</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>89</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>90</v>
-      </c>
-      <c r="X8" t="s">
-        <v>91</v>
       </c>
       <c r="Y8" s="13">
         <v>43891</v>
       </c>
       <c r="Z8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.15">
@@ -1764,25 +1760,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
         <v>96</v>
       </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
       <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
         <v>85</v>
       </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
         <v>43846</v>
@@ -1800,34 +1796,34 @@
         <v>5400</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
+        <v>87</v>
+      </c>
+      <c r="V9" t="s">
         <v>88</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>89</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>90</v>
-      </c>
-      <c r="X9" t="s">
-        <v>91</v>
       </c>
       <c r="Y9" s="13">
         <v>43891</v>
       </c>
       <c r="Z9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.15">
@@ -1835,25 +1831,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>100</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>101</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>102</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
       </c>
       <c r="I10" s="7">
         <v>43819</v>
@@ -1871,34 +1867,34 @@
         <v>14537</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" t="s">
         <v>104</v>
       </c>
-      <c r="P10" t="s">
-        <v>71</v>
-      </c>
-      <c r="T10" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>105</v>
       </c>
-      <c r="V10" t="s">
-        <v>106</v>
-      </c>
       <c r="W10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y10" s="13">
         <v>43831</v>
       </c>
       <c r="Z10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.15">
@@ -1906,25 +1902,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
       <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>102</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
       </c>
       <c r="I11" s="7">
         <v>43819</v>
@@ -1942,34 +1938,34 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" t="s">
         <v>104</v>
       </c>
-      <c r="P11" t="s">
-        <v>71</v>
-      </c>
-      <c r="T11" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>105</v>
       </c>
-      <c r="V11" t="s">
-        <v>106</v>
-      </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y11" s="13">
         <v>43831</v>
       </c>
       <c r="Z11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.15">
@@ -1977,25 +1973,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="7">
         <v>43820</v>
@@ -2013,37 +2009,37 @@
         <v>0</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R12" s="9">
         <v>6</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U12" t="s">
+        <v>150</v>
+      </c>
+      <c r="V12" t="s">
         <v>151</v>
       </c>
-      <c r="V12" t="s">
-        <v>152</v>
-      </c>
       <c r="W12" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y12" s="15">
         <v>43831</v>
       </c>
       <c r="Z12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.15">
@@ -2051,25 +2047,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="I13" s="7">
         <v>43818</v>
@@ -2087,37 +2083,37 @@
         <v>0</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R13" s="9">
         <v>8</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
+        <v>150</v>
+      </c>
+      <c r="V13" t="s">
         <v>151</v>
       </c>
-      <c r="V13" t="s">
-        <v>152</v>
-      </c>
       <c r="W13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="Y13" s="15">
         <v>43831</v>
       </c>
       <c r="Z13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.15">
@@ -2125,25 +2121,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>112</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
         <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>114</v>
       </c>
       <c r="I14" s="7">
         <v>43784</v>
@@ -2161,37 +2157,37 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" t="s">
         <v>69</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>70</v>
-      </c>
-      <c r="P14" t="s">
-        <v>71</v>
       </c>
       <c r="R14">
         <v>30</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s">
         <v>72</v>
       </c>
-      <c r="V14" t="s">
-        <v>73</v>
-      </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y14" s="13">
         <v>43831</v>
       </c>
       <c r="Z14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.15">
@@ -2199,25 +2195,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
         <v>117</v>
       </c>
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
       <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
         <v>66</v>
       </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="7">
         <v>43784</v>
@@ -2235,37 +2231,37 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" t="s">
         <v>69</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>70</v>
-      </c>
-      <c r="P15" t="s">
-        <v>71</v>
       </c>
       <c r="R15">
         <v>43</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V15" t="s">
         <v>72</v>
       </c>
-      <c r="V15" t="s">
-        <v>73</v>
-      </c>
       <c r="W15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" t="s">
         <v>115</v>
-      </c>
-      <c r="X15" t="s">
-        <v>116</v>
       </c>
       <c r="Y15" s="13">
         <v>43831</v>
       </c>
       <c r="Z15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.15">
@@ -2273,25 +2269,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
         <v>119</v>
       </c>
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
       <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
         <v>66</v>
       </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="7">
         <v>43784</v>
@@ -2309,37 +2305,37 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" t="s">
         <v>69</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>70</v>
-      </c>
-      <c r="P16" t="s">
-        <v>71</v>
       </c>
       <c r="R16">
         <v>47</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s">
         <v>72</v>
       </c>
-      <c r="V16" t="s">
-        <v>73</v>
-      </c>
       <c r="W16" t="s">
+        <v>114</v>
+      </c>
+      <c r="X16" t="s">
         <v>115</v>
-      </c>
-      <c r="X16" t="s">
-        <v>116</v>
       </c>
       <c r="Y16" s="13">
         <v>43831</v>
       </c>
       <c r="Z16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.15">
@@ -2347,25 +2343,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
         <v>121</v>
       </c>
-      <c r="E17" t="s">
-        <v>122</v>
-      </c>
       <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
         <v>66</v>
       </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="7">
         <v>43784</v>
@@ -2383,37 +2379,37 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R17">
         <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s">
         <v>72</v>
       </c>
-      <c r="V17" t="s">
-        <v>73</v>
-      </c>
       <c r="W17" t="s">
+        <v>114</v>
+      </c>
+      <c r="X17" t="s">
         <v>115</v>
-      </c>
-      <c r="X17" t="s">
-        <v>116</v>
       </c>
       <c r="Y17" s="13">
         <v>43831</v>
       </c>
       <c r="Z17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.15">
@@ -2421,25 +2417,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
         <v>123</v>
       </c>
-      <c r="E18" t="s">
-        <v>124</v>
-      </c>
       <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="7">
         <v>43784</v>
@@ -2457,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" t="s">
         <v>69</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>70</v>
-      </c>
-      <c r="P18" t="s">
-        <v>71</v>
       </c>
       <c r="Q18" s="10">
         <v>34</v>
@@ -2472,25 +2468,25 @@
         <v>88</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
+        <v>71</v>
+      </c>
+      <c r="V18" t="s">
         <v>72</v>
       </c>
-      <c r="V18" t="s">
-        <v>73</v>
-      </c>
       <c r="W18" t="s">
+        <v>114</v>
+      </c>
+      <c r="X18" t="s">
         <v>115</v>
-      </c>
-      <c r="X18" t="s">
-        <v>116</v>
       </c>
       <c r="Y18" s="13">
         <v>43831</v>
       </c>
       <c r="Z18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.15">
@@ -2498,25 +2494,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>126</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>127</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>128</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>129</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>130</v>
-      </c>
-      <c r="H19" t="s">
-        <v>131</v>
       </c>
       <c r="I19" s="7">
         <v>43832</v>
@@ -2535,40 +2531,40 @@
         <v>1736.6934000000001</v>
       </c>
       <c r="N19" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" t="s">
         <v>132</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>133</v>
-      </c>
-      <c r="P19" t="s">
-        <v>134</v>
       </c>
       <c r="Q19" s="9">
         <v>8</v>
       </c>
       <c r="T19" t="s">
+        <v>134</v>
+      </c>
+      <c r="U19" t="s">
         <v>135</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>136</v>
       </c>
-      <c r="V19" t="s">
-        <v>137</v>
-      </c>
       <c r="W19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y19" s="13">
         <v>43831</v>
       </c>
       <c r="Z19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.15">
@@ -2576,25 +2572,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
         <v>156</v>
       </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>157</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>158</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>159</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>160</v>
-      </c>
-      <c r="H20" t="s">
-        <v>161</v>
       </c>
       <c r="I20" s="7">
         <v>43651</v>
@@ -2612,37 +2608,37 @@
         <v>1896</v>
       </c>
       <c r="N20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q20">
         <v>10</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
+        <v>135</v>
+      </c>
+      <c r="V20" t="s">
         <v>136</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>137</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>138</v>
-      </c>
-      <c r="X20" t="s">
-        <v>139</v>
       </c>
       <c r="Y20" s="13">
         <v>43647</v>
       </c>
       <c r="Z20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.15">
@@ -2650,25 +2646,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
         <v>164</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" t="s">
         <v>165</v>
-      </c>
-      <c r="F21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" t="s">
-        <v>166</v>
       </c>
       <c r="I21" s="7">
         <v>43651</v>
@@ -2686,37 +2682,37 @@
         <v>1765</v>
       </c>
       <c r="N21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V21" t="s">
         <v>136</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>137</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>138</v>
-      </c>
-      <c r="X21" t="s">
-        <v>139</v>
       </c>
       <c r="Y21" s="13">
         <v>43647</v>
       </c>
       <c r="Z21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.15">
@@ -2724,25 +2720,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
         <v>167</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" t="s">
         <v>168</v>
-      </c>
-      <c r="F22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" t="s">
-        <v>169</v>
       </c>
       <c r="I22" s="7">
         <v>43715</v>
@@ -2760,37 +2756,37 @@
         <v>2441</v>
       </c>
       <c r="N22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q22">
         <v>25</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
+        <v>135</v>
+      </c>
+      <c r="V22" t="s">
         <v>136</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>137</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>138</v>
-      </c>
-      <c r="X22" t="s">
-        <v>139</v>
       </c>
       <c r="Y22" s="13">
         <v>43709</v>
       </c>
       <c r="Z22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.15">
@@ -2798,25 +2794,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" t="s">
         <v>170</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" t="s">
         <v>171</v>
-      </c>
-      <c r="F23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" t="s">
-        <v>172</v>
       </c>
       <c r="I23" s="7">
         <v>43719</v>
@@ -2834,37 +2830,37 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
+        <v>135</v>
+      </c>
+      <c r="V23" t="s">
         <v>136</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>137</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>138</v>
-      </c>
-      <c r="X23" t="s">
-        <v>139</v>
       </c>
       <c r="Y23" s="13">
         <v>43709</v>
       </c>
       <c r="Z23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/produceTable.xlsx
+++ b/src/test/resources/data/produceTable.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leichao\git\commom\src\test\resources\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3906525C-4D0F-4127-9EF9-51C3EA47894C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="2730" windowWidth="26565" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AR$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AR$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="143">
   <si>
     <t>序号</t>
   </si>
@@ -37,7 +26,6 @@
   </si>
   <si>
     <t>项目类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>需求号</t>
@@ -50,14 +38,12 @@
   </si>
   <si>
     <t>项目负责人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>设计人员</t>
   </si>
   <si>
     <t>勘察完成日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设计完成日期</t>
@@ -91,7 +77,6 @@
   </si>
   <si>
     <t>需求是否已确认核销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内部立项编号</t>
@@ -110,99 +95,78 @@
   </si>
   <si>
     <t>标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合同编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否已计提</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计提内部立项编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计提内部立项名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计提合作单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>结算勘察设计费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计提金额(元)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否已结算</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>确认单编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否自有或多项目转为单项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否在14年8月已核对</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否漏报产值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>签字标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>原勘察设计费（元）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>原自有产值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>原预估合作费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LTE宏蜂窝扩容工程-插基带板扩容</t>
   </si>
   <si>
     <t>无线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDL19083376</t>
   </si>
   <si>
     <t>朝阳郎各庄村HLG</t>
   </si>
   <si>
     <t>北京移动-城一分公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺鹏</t>
-  </si>
-  <si>
-    <t>仇佳腾</t>
+  </si>
+  <si>
+    <t>hh1</t>
   </si>
   <si>
     <t>自有</t>
@@ -211,6 +175,9 @@
     <t>/</t>
   </si>
   <si>
+    <t>勘察+设计</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
@@ -226,25 +193,18 @@
     <t>2018年城一分公司4G主设备扩容建设工程(第2批)</t>
   </si>
   <si>
+    <t>新增</t>
+  </si>
+  <si>
     <t>TDL19081974</t>
   </si>
   <si>
     <t>朝阳广播学院FHL</t>
   </si>
   <si>
-    <t>北京移动-城一分公司</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2G宏蜂窝新建工程</t>
   </si>
   <si>
-    <t>无线</t>
-  </si>
-  <si>
     <t>GSM19100025</t>
   </si>
   <si>
@@ -254,51 +214,42 @@
     <t>北京移动-城三分公司</t>
   </si>
   <si>
-    <t>焦厚</t>
-  </si>
-  <si>
-    <t>蔡欣龙</t>
+    <t>hh2</t>
   </si>
   <si>
     <t>工时定额</t>
   </si>
   <si>
+    <t>2018BJCT0016-001</t>
+  </si>
+  <si>
+    <t>2018年中国移动北京公司城三分公司无线网建设工程</t>
+  </si>
+  <si>
+    <t>B19302710000400</t>
+  </si>
+  <si>
+    <t>2019年城三分公司4G室外宏基站主设备安装工程（第2批）</t>
+  </si>
+  <si>
+    <t>LTE宏蜂窝新建工程</t>
+  </si>
+  <si>
+    <t>TDL19090843</t>
+  </si>
+  <si>
+    <t>城三4G海淀区复兴路甲1号1Z</t>
+  </si>
+  <si>
     <t>河北院</t>
   </si>
   <si>
-    <t>勘察+设计</t>
-  </si>
-  <si>
-    <t>2018BJCT0016-001</t>
-  </si>
-  <si>
-    <t>2018年中国移动北京公司城三分公司无线网建设工程</t>
-  </si>
-  <si>
-    <t>B19302710000400</t>
-  </si>
-  <si>
-    <t>2019年城三分公司4G室外宏基站主设备安装工程（第2批）</t>
-  </si>
-  <si>
-    <t>LTE宏蜂窝新建工程</t>
-  </si>
-  <si>
-    <t>TDL19090843</t>
-  </si>
-  <si>
-    <t>城三4G海淀区复兴路甲1号1Z</t>
-  </si>
-  <si>
     <t>TDL16030524</t>
   </si>
   <si>
     <t>城三4G海淀八家郊野公园东侧1Z</t>
   </si>
   <si>
-    <t>杨志华</t>
-  </si>
-  <si>
     <t>5G宏蜂窝新建工程</t>
   </si>
   <si>
@@ -311,10 +262,7 @@
     <t>北京移动-通州分公司</t>
   </si>
   <si>
-    <t>李静则</t>
-  </si>
-  <si>
-    <t>刘永平</t>
+    <t>hh3</t>
   </si>
   <si>
     <t>2020BJCT0013-001</t>
@@ -335,9 +283,6 @@
     <t>通州5G乔庄北街八号院一号楼2H</t>
   </si>
   <si>
-    <t>鲁靖</t>
-  </si>
-  <si>
     <t>天津邮电</t>
   </si>
   <si>
@@ -359,10 +304,7 @@
     <t>北京移动-城二分公司</t>
   </si>
   <si>
-    <t>邹韶霞</t>
-  </si>
-  <si>
-    <t>柴艳喆-通畅</t>
+    <t>hh4</t>
   </si>
   <si>
     <t>通畅</t>
@@ -389,15 +331,33 @@
     <t>新技术室分系统工程（分布）</t>
   </si>
   <si>
+    <t>TDL19124937</t>
+  </si>
+  <si>
+    <t>城二4G西城陶然湖景1ZM</t>
+  </si>
+  <si>
+    <t>2017BJCT0031-001</t>
+  </si>
+  <si>
+    <t>2017年北京移动城二分公司无线网建设工程</t>
+  </si>
+  <si>
+    <t>TDL19124951</t>
+  </si>
+  <si>
+    <t>城二4G西城国英园1ZM</t>
+  </si>
+  <si>
+    <t>单项目合作</t>
+  </si>
+  <si>
     <t>TDL19020522-1</t>
   </si>
   <si>
     <t>城三4G海淀过程大厦B座1NM</t>
   </si>
   <si>
-    <t>杨浩瑄</t>
-  </si>
-  <si>
     <t>B18302710000989</t>
   </si>
   <si>
@@ -431,43 +391,16 @@
     <t>LTE微蜂窝扩容工程-新增天线/RRU（分布）</t>
   </si>
   <si>
-    <t>无线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TDL20010065</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>房山佳世苑ZLM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>北京移动-房山分公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁春花</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中时讯-蔺峰</t>
-  </si>
-  <si>
-    <t>工时定额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中时讯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘察+设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2019BJCT0015-001</t>
@@ -485,59 +418,6 @@
     <t>使用原有住宅楼RRU增加底商区域覆盖</t>
   </si>
   <si>
-    <t>B20302710000207</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B18302710000079</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDL19124937</t>
-  </si>
-  <si>
-    <t>城二4G西城陶然湖景1ZM</t>
-  </si>
-  <si>
-    <t>北京移动-城二分公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹韶霞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDL19124951</t>
-  </si>
-  <si>
-    <t>城二4G西城国英园1ZM</t>
-  </si>
-  <si>
-    <t>齐梦琪-通畅</t>
-  </si>
-  <si>
-    <t>2017BJCT0031-001</t>
-  </si>
-  <si>
-    <t>2017年北京移动城二分公司无线网建设工程</t>
-  </si>
-  <si>
-    <t>单项目合作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B18302710000989</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B19302710000161</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>微蜂窝大修工程（分布）</t>
   </si>
   <si>
@@ -547,73 +427,50 @@
     <t>房山时代广场ZLM</t>
   </si>
   <si>
-    <t>北京移动-房山分公司</t>
-  </si>
-  <si>
-    <t>梁春花</t>
-  </si>
-  <si>
-    <t>贾立春</t>
-  </si>
-  <si>
     <t>德丰信</t>
   </si>
   <si>
-    <t>新增</t>
-  </si>
-  <si>
     <t>2019-FS-07-00009</t>
   </si>
   <si>
     <t>房山窦店提香草堂M</t>
   </si>
   <si>
-    <t>翟丽雯</t>
-  </si>
-  <si>
     <t>TDL18123869</t>
   </si>
   <si>
     <t>房山碧鑫水务ZLM</t>
   </si>
   <si>
-    <t>德丰信-陈文睿</t>
-  </si>
-  <si>
     <t>2019-FS-09-00003</t>
   </si>
   <si>
     <t>房山燕山办事处办公楼ZLM</t>
-  </si>
-  <si>
-    <t>德丰信-李改朝</t>
-  </si>
-  <si>
-    <t>自有</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDL19083376</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -622,14 +479,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -637,22 +486,35 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -660,12 +522,133 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,8 +667,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -695,69 +864,311 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -766,13 +1177,58 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -780,7 +1236,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -790,9 +1246,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -841,7 +1294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,7 +1329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1050,171 +1503,166 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="56.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="21" max="21" width="18.375" customWidth="1"/>
+    <col min="22" max="22" width="53.5" customWidth="1"/>
+    <col min="23" max="23" width="17.25" customWidth="1"/>
+    <col min="24" max="24" width="56.625" customWidth="1"/>
+    <col min="25" max="25" width="13.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:44">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:44">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1225,68 +1673,68 @@
         <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="16">
-        <v>0.9549537037037038</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="I2" s="9">
+        <v>43832</v>
+      </c>
+      <c r="J2" s="9">
         <v>43836</v>
       </c>
-      <c r="K2" s="8">
-        <v>2040</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1448</v>
-      </c>
-      <c r="M2" s="8">
+      <c r="K2" s="10">
+        <v>204</v>
+      </c>
+      <c r="L2" s="10">
+        <v>148</v>
+      </c>
+      <c r="M2" s="10">
         <f>K2+L2</f>
-        <v>3488</v>
+        <v>352</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="8"/>
+      <c r="S2" s="10"/>
       <c r="T2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" s="12">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="13">
         <v>43831</v>
       </c>
       <c r="Z2" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
@@ -1307,7 +1755,7 @@
       <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
     </row>
-    <row r="3" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:44">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1318,35 +1766,35 @@
         <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <v>43832</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <v>43836</v>
       </c>
-      <c r="K3" s="8">
-        <v>2040</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1448</v>
-      </c>
-      <c r="M3" s="8">
+      <c r="K3" s="10">
+        <v>204</v>
+      </c>
+      <c r="L3" s="10">
+        <v>148</v>
+      </c>
+      <c r="M3" s="10">
         <f t="shared" ref="M3" si="0">K3+L3</f>
-        <v>3488</v>
+        <v>352</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>50</v>
@@ -1355,31 +1803,31 @@
         <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="8"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3" s="12">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="13">
         <v>43831</v>
       </c>
       <c r="Z3" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
@@ -1400,7 +1848,7 @@
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1408,250 +1856,250 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="9">
+        <v>43823</v>
+      </c>
+      <c r="J4" s="9">
+        <v>43826</v>
+      </c>
+      <c r="K4">
+        <v>226</v>
+      </c>
+      <c r="L4">
+        <v>992.6065</v>
+      </c>
+      <c r="M4">
+        <v>3257.3935</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="7">
-        <v>43823</v>
-      </c>
-      <c r="J4" s="7">
-        <v>43826</v>
-      </c>
-      <c r="K4">
-        <v>2264.7869999999998</v>
-      </c>
-      <c r="L4">
-        <v>992.60650000000032</v>
-      </c>
-      <c r="M4">
-        <v>3257.3935000000001</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="V4" t="s">
         <v>68</v>
       </c>
-      <c r="O4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
         <v>70</v>
-      </c>
-      <c r="T4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>74</v>
       </c>
       <c r="Y4" s="14">
         <v>43497</v>
       </c>
       <c r="Z4" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
       <c r="H5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="7">
+        <v>65</v>
+      </c>
+      <c r="I5" s="9">
         <v>43823</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="9">
         <v>43826</v>
       </c>
       <c r="K5">
-        <v>2040</v>
+        <v>204</v>
       </c>
       <c r="L5">
         <v>1921</v>
       </c>
       <c r="M5">
-        <v>3961</v>
+        <v>396</v>
       </c>
       <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" t="s">
         <v>68</v>
       </c>
-      <c r="O5" t="s">
+      <c r="W5" t="s">
         <v>69</v>
       </c>
-      <c r="P5" t="s">
+      <c r="X5" t="s">
         <v>70</v>
-      </c>
-      <c r="T5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
       </c>
       <c r="Y5" s="14">
         <v>43497</v>
       </c>
       <c r="Z5" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
         <v>65</v>
       </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
       <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="7">
+        <v>65</v>
+      </c>
+      <c r="I6" s="9">
         <v>43724</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="9">
         <v>43727</v>
       </c>
       <c r="K6">
-        <v>2040</v>
+        <v>200</v>
       </c>
       <c r="L6">
         <v>1921</v>
       </c>
       <c r="M6">
-        <v>3961</v>
+        <v>396</v>
       </c>
       <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" t="s">
         <v>68</v>
       </c>
-      <c r="O6" t="s">
+      <c r="W6" t="s">
         <v>69</v>
       </c>
-      <c r="P6" t="s">
+      <c r="X6" t="s">
         <v>70</v>
       </c>
-      <c r="T6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" t="s">
-        <v>71</v>
-      </c>
-      <c r="V6" t="s">
-        <v>72</v>
-      </c>
-      <c r="W6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="3">
         <v>43862</v>
       </c>
       <c r="Z6" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
       <c r="H7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="7">
+        <v>81</v>
+      </c>
+      <c r="I7" s="9">
         <v>43899</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="9">
         <v>43920</v>
       </c>
       <c r="K7">
-        <v>2040</v>
+        <v>240</v>
       </c>
       <c r="L7">
         <v>3360</v>
       </c>
       <c r="M7">
-        <v>5400</v>
+        <v>540</v>
       </c>
       <c r="N7" t="s">
         <v>50</v>
@@ -1660,134 +2108,134 @@
         <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="W7" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y7" s="13">
+        <v>85</v>
+      </c>
+      <c r="Y7" s="3">
         <v>43891</v>
       </c>
       <c r="Z7" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
       <c r="H8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="7">
+        <v>81</v>
+      </c>
+      <c r="I8" s="9">
         <v>43846</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="9">
         <v>43920</v>
       </c>
       <c r="K8">
-        <v>2040</v>
+        <v>20</v>
       </c>
       <c r="L8">
         <v>3360</v>
       </c>
       <c r="M8">
-        <v>5400</v>
+        <v>540</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y8" s="13">
+        <v>85</v>
+      </c>
+      <c r="Y8" s="3">
         <v>43891</v>
       </c>
       <c r="Z8" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
       <c r="H9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="7">
+        <v>81</v>
+      </c>
+      <c r="I9" s="9">
         <v>43846</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="9">
         <v>43920</v>
       </c>
       <c r="K9">
-        <v>2040</v>
+        <v>240</v>
       </c>
       <c r="L9">
         <v>3360</v>
@@ -1796,69 +2244,69 @@
         <v>5400</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="W9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9" s="13">
+        <v>85</v>
+      </c>
+      <c r="Y9" s="3">
         <v>43891</v>
       </c>
       <c r="Z9" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="7">
+        <v>95</v>
+      </c>
+      <c r="I10" s="9">
         <v>43819</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="9">
         <v>43823</v>
       </c>
       <c r="K10">
-        <v>1368</v>
+        <v>138</v>
       </c>
       <c r="L10">
         <v>13169</v>
@@ -1867,264 +2315,264 @@
         <v>14537</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="V10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="W10" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y10" s="13">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>43831</v>
       </c>
       <c r="Z10" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="7">
+        <v>95</v>
+      </c>
+      <c r="I11" s="9">
         <v>43819</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="9">
         <v>43823</v>
       </c>
       <c r="K11">
-        <v>2462</v>
+        <v>262</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="11">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="V11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="W11" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="X11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y11" s="13">
+        <v>100</v>
+      </c>
+      <c r="Y11" s="3">
         <v>43831</v>
       </c>
       <c r="Z11" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" spans="1:26">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="B12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="9">
         <v>43820</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>43824</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="9">
+      <c r="N12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="2">
         <v>6</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>146</v>
+      <c r="T12" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="V12" t="s">
-        <v>151</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="X12" s="9" t="s">
         <v>107</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="Y12" s="15">
         <v>43831</v>
       </c>
       <c r="Z12" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" spans="1:26">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="9">
+        <v>43818</v>
+      </c>
+      <c r="J13" s="9">
+        <v>43824</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="O13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="2">
+        <v>8</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" t="s">
+        <v>106</v>
+      </c>
+      <c r="V13" t="s">
+        <v>107</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" s="7">
-        <v>43818</v>
-      </c>
-      <c r="J13" s="7">
-        <v>43824</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13" s="9">
-        <v>8</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U13" t="s">
-        <v>150</v>
-      </c>
-      <c r="V13" t="s">
-        <v>151</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="Y13" s="15">
         <v>43831</v>
       </c>
       <c r="Z13" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>111</v>
@@ -2133,18 +2581,18 @@
         <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="7">
+        <v>81</v>
+      </c>
+      <c r="I14" s="9">
         <v>43784</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="9">
         <v>43784</v>
       </c>
       <c r="K14">
@@ -2157,68 +2605,68 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="R14">
         <v>30</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W14" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="X14" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y14" s="13">
+        <v>114</v>
+      </c>
+      <c r="Y14" s="3">
         <v>43831</v>
       </c>
       <c r="Z14" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="E15" t="s">
-        <v>117</v>
-      </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="7">
+        <v>81</v>
+      </c>
+      <c r="I15" s="9">
         <v>43784</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="9">
         <v>43784</v>
       </c>
       <c r="K15">
@@ -2231,68 +2679,68 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="R15">
         <v>43</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W15" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" t="s">
         <v>114</v>
       </c>
-      <c r="X15" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y15" s="13">
+      <c r="Y15" s="3">
         <v>43831</v>
       </c>
       <c r="Z15" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
         <v>118</v>
       </c>
-      <c r="E16" t="s">
-        <v>119</v>
-      </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="7">
+        <v>81</v>
+      </c>
+      <c r="I16" s="9">
         <v>43784</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="9">
         <v>43784</v>
       </c>
       <c r="K16">
@@ -2305,68 +2753,68 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="R16">
         <v>47</v>
       </c>
       <c r="T16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W16" t="s">
+        <v>113</v>
+      </c>
+      <c r="X16" t="s">
         <v>114</v>
       </c>
-      <c r="X16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="3">
         <v>43831</v>
       </c>
       <c r="Z16" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
         <v>120</v>
       </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="7">
+        <v>81</v>
+      </c>
+      <c r="I17" s="9">
         <v>43784</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9">
         <v>43784</v>
       </c>
       <c r="K17">
@@ -2379,68 +2827,68 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>103</v>
+        <v>66</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="R17">
         <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W17" t="s">
+        <v>113</v>
+      </c>
+      <c r="X17" t="s">
         <v>114</v>
       </c>
-      <c r="X17" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y17" s="13">
+      <c r="Y17" s="3">
         <v>43831</v>
       </c>
       <c r="Z17" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
         <v>122</v>
       </c>
-      <c r="E18" t="s">
-        <v>123</v>
-      </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="7">
+        <v>81</v>
+      </c>
+      <c r="I18" s="9">
         <v>43784</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="9">
         <v>43784</v>
       </c>
       <c r="K18">
@@ -2453,153 +2901,153 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P18" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q18" s="10">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="11">
         <v>34</v>
       </c>
       <c r="R18">
         <v>88</v>
       </c>
       <c r="T18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X18" t="s">
         <v>114</v>
       </c>
-      <c r="X18" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y18" s="13">
+      <c r="Y18" s="3">
         <v>43831</v>
       </c>
       <c r="Z18" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
         <v>124</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>125</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>126</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" t="s">
-        <v>128</v>
-      </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="7">
+        <v>95</v>
+      </c>
+      <c r="I19" s="9">
         <v>43832</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="9">
         <v>43833</v>
       </c>
       <c r="K19">
-        <v>1632.4</v>
+        <v>162.4</v>
       </c>
       <c r="L19">
-        <v>104.29340000000001</v>
+        <v>104.2934</v>
       </c>
       <c r="M19">
         <f>K19+L19</f>
-        <v>1736.6934000000001</v>
+        <v>266.6934</v>
       </c>
       <c r="N19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>8</v>
+      </c>
+      <c r="T19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" t="s">
+        <v>128</v>
+      </c>
+      <c r="V19" t="s">
+        <v>129</v>
+      </c>
+      <c r="W19" t="s">
+        <v>130</v>
+      </c>
+      <c r="X19" t="s">
         <v>131</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Y19" s="3">
+        <v>43831</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA19" t="s">
         <v>132</v>
       </c>
-      <c r="P19" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>8</v>
-      </c>
-      <c r="T19" t="s">
-        <v>134</v>
-      </c>
-      <c r="U19" t="s">
-        <v>135</v>
-      </c>
-      <c r="V19" t="s">
-        <v>136</v>
-      </c>
-      <c r="W19" t="s">
-        <v>154</v>
-      </c>
-      <c r="X19" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>43831</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" s="7">
+        <v>95</v>
+      </c>
+      <c r="I20" s="9">
         <v>43651</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="9">
         <v>43670</v>
       </c>
       <c r="K20">
-        <v>1632</v>
+        <v>132</v>
       </c>
       <c r="L20">
         <v>264</v>
@@ -2608,68 +3056,68 @@
         <v>1896</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O20" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Q20">
         <v>10</v>
       </c>
       <c r="T20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="X20" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y20" s="13">
+        <v>131</v>
+      </c>
+      <c r="Y20" s="3">
         <v>43647</v>
       </c>
       <c r="Z20" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="7">
+        <v>95</v>
+      </c>
+      <c r="I21" s="9">
         <v>43651</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="9">
         <v>43670</v>
       </c>
       <c r="K21">
@@ -2682,142 +3130,142 @@
         <v>1765</v>
       </c>
       <c r="N21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="P21" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="X21" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y21" s="13">
+        <v>131</v>
+      </c>
+      <c r="Y21" s="3">
         <v>43647</v>
       </c>
       <c r="Z21" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" s="7">
+        <v>95</v>
+      </c>
+      <c r="I22" s="9">
         <v>43715</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="9">
         <v>43718</v>
       </c>
       <c r="K22">
-        <v>1632</v>
+        <v>163</v>
       </c>
       <c r="L22">
-        <v>809</v>
+        <v>80</v>
       </c>
       <c r="M22">
         <v>2441</v>
       </c>
       <c r="N22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="P22" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Q22">
         <v>25</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="X22" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y22" s="13">
+        <v>131</v>
+      </c>
+      <c r="Y22" s="3">
         <v>43709</v>
       </c>
       <c r="Z22" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="7">
+        <v>95</v>
+      </c>
+      <c r="I23" s="9">
         <v>43719</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="9">
         <v>43721</v>
       </c>
       <c r="K23">
@@ -2830,51 +3278,53 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O23" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="P23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="W23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="X23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y23" s="13">
+        <v>131</v>
+      </c>
+      <c r="Y23" s="3">
         <v>43709</v>
       </c>
       <c r="Z23" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="A1:AR23">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="D1:D3">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"无线,有线,网络,电源,规划咨询,网络优化-小口径,网络优化-大修理,软件评估,招标代理,服务支撑,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>